--- a/04_paper/citations.xlsx
+++ b/04_paper/citations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Author</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>https://www.npr.org/sections/goatsandsoda/2017/10/31/560278615/find-out-some-but-not-all-the-secrets-of-chinas-foreign-aid</t>
+  </si>
+  <si>
+    <t>Regilme and Hodzi</t>
+  </si>
+  <si>
+    <t>Comparing US and Chinese Aid in the Era of Rising Powers</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/03932729.2020.1855904</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +487,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
